--- a/UE2/V7/CPU/UE2_ISA_v8.xlsx
+++ b/UE2/V7/CPU/UE2_ISA_v8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nakaz\Desktop\Electronics Projects\UEVTC Github\UE2\V7\CPU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9A96F58-8A47-4B50-AF03-247EEBC84782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FC2D6D2-15DF-4706-B720-57C8FF410394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -372,10 +372,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>BFR</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>-</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -534,6 +530,10 @@
   </si>
   <si>
     <t>XMM = 000: Source copied into destination   [DDDDDD &lt;- SSSS]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BVR</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -678,6 +678,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -696,10 +700,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -992,7 +992,7 @@
   <dimension ref="B2:N43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1009,16 +1009,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:11">
-      <c r="D2" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
+      <c r="D2" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
     </row>
     <row r="3" spans="3:11">
       <c r="C3" s="5">
@@ -1027,74 +1027,74 @@
       <c r="D3" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12" t="s">
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
     </row>
     <row r="4" spans="3:11">
       <c r="C4" s="5">
         <v>1</v>
       </c>
       <c r="D4" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="E4" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12" t="s">
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
     </row>
     <row r="5" spans="3:11">
       <c r="C5" s="5">
         <v>2</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E5" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12" t="s">
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
     </row>
     <row r="6" spans="3:11">
       <c r="C6" s="5">
         <v>3</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="E6" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
     </row>
     <row r="7" spans="3:11">
       <c r="C7" s="5">
@@ -1103,17 +1103,17 @@
       <c r="D7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12" t="s">
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
     </row>
     <row r="8" spans="3:11">
       <c r="C8" s="5">
@@ -1122,17 +1122,17 @@
       <c r="D8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12" t="s">
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
     </row>
     <row r="9" spans="3:11">
       <c r="C9" s="5">
@@ -1141,17 +1141,17 @@
       <c r="D9" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12" t="s">
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
     </row>
     <row r="10" spans="3:11">
       <c r="C10" s="5">
@@ -1160,27 +1160,27 @@
       <c r="D10" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12" t="s">
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
     </row>
     <row r="13" spans="3:11">
-      <c r="D13" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
+      <c r="D13" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
       <c r="J13" s="9" t="s">
         <v>82</v>
       </c>
@@ -1190,25 +1190,25 @@
     </row>
     <row r="14" spans="3:11">
       <c r="D14" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="F14" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="G14" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="F14" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>97</v>
-      </c>
       <c r="H14" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J14" s="10" t="s">
         <v>85</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="3:11">
@@ -1216,22 +1216,22 @@
         <v>111</v>
       </c>
       <c r="E15" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="G15" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="F15" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>99</v>
-      </c>
       <c r="H15" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J15" s="10" t="s">
         <v>84</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="3:11">
@@ -1243,14 +1243,14 @@
       </c>
     </row>
     <row r="17" spans="4:12">
-      <c r="D17" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
+      <c r="D17" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
       <c r="J17" s="10" t="s">
         <v>71</v>
       </c>
@@ -1259,46 +1259,46 @@
       </c>
     </row>
     <row r="18" spans="4:12">
-      <c r="D18" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
+      <c r="D18" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
       <c r="J18" s="10" t="s">
-        <v>86</v>
+        <v>125</v>
       </c>
       <c r="K18" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="19" spans="4:12">
-      <c r="D19" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
+      <c r="D19" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
       <c r="J19" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K19" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="20" spans="4:12">
-      <c r="D20" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="17"/>
+      <c r="D20" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="19"/>
       <c r="J20" s="10" t="s">
         <v>73</v>
       </c>
@@ -1315,204 +1315,223 @@
       </c>
     </row>
     <row r="24" spans="4:12">
-      <c r="D24" s="15" t="s">
+      <c r="D24" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+    </row>
+    <row r="25" spans="4:12">
+      <c r="D25" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-    </row>
-    <row r="25" spans="4:12">
-      <c r="D25" s="15" t="s">
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+    </row>
+    <row r="26" spans="4:12">
+      <c r="D26" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+    </row>
+    <row r="27" spans="4:12">
+      <c r="D27" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
-    </row>
-    <row r="26" spans="4:12">
-      <c r="D26" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
-    </row>
-    <row r="27" spans="4:12">
-      <c r="D27" s="15" t="s">
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+    </row>
+    <row r="28" spans="4:12">
+      <c r="D28" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+    </row>
+    <row r="29" spans="4:12">
+      <c r="D29" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15"/>
-    </row>
-    <row r="28" spans="4:12">
-      <c r="D28" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
-    </row>
-    <row r="29" spans="4:12">
-      <c r="D29" s="15" t="s">
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+    </row>
+    <row r="30" spans="4:12">
+      <c r="D30" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="15"/>
-    </row>
-    <row r="30" spans="4:12">
-      <c r="D30" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="15"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
     </row>
     <row r="31" spans="4:12">
-      <c r="D31" s="15" t="s">
+      <c r="D31" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="15"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
     </row>
     <row r="32" spans="4:12">
-      <c r="D32" s="15" t="s">
+      <c r="D32" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="15"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
     </row>
     <row r="35" spans="4:7">
-      <c r="D35" s="13" t="s">
+      <c r="D35" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="G35" s="16"/>
+    </row>
+    <row r="36" spans="4:7">
+      <c r="D36" s="16"/>
+      <c r="E36" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+    </row>
+    <row r="37" spans="4:7">
+      <c r="D37" s="16"/>
+      <c r="E37" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+    </row>
+    <row r="38" spans="4:7">
+      <c r="D38" s="16"/>
+      <c r="E38" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="F38" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="E35" s="11" t="s">
+      <c r="G38" s="16"/>
+    </row>
+    <row r="39" spans="4:7">
+      <c r="D39" s="16"/>
+      <c r="E39" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+    </row>
+    <row r="40" spans="4:7">
+      <c r="D40" s="16"/>
+      <c r="E40" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="F35" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="G35" s="14"/>
-    </row>
-    <row r="36" spans="4:7">
-      <c r="D36" s="14"/>
-      <c r="E36" s="5" t="s">
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+    </row>
+    <row r="41" spans="4:7">
+      <c r="D41" s="16"/>
+      <c r="E41" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="F41" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="G41" s="16"/>
+    </row>
+    <row r="42" spans="4:7">
+      <c r="D42" s="16"/>
+      <c r="E42" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+    </row>
+    <row r="43" spans="4:7">
+      <c r="D43" s="16"/>
+      <c r="E43" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-    </row>
-    <row r="37" spans="4:7">
-      <c r="D37" s="14"/>
-      <c r="E37" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-    </row>
-    <row r="38" spans="4:7">
-      <c r="D38" s="14"/>
-      <c r="E38" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="F38" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="G38" s="14"/>
-    </row>
-    <row r="39" spans="4:7">
-      <c r="D39" s="14"/>
-      <c r="E39" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-    </row>
-    <row r="40" spans="4:7">
-      <c r="D40" s="14"/>
-      <c r="E40" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-    </row>
-    <row r="41" spans="4:7">
-      <c r="D41" s="14"/>
-      <c r="E41" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="F41" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="G41" s="14"/>
-    </row>
-    <row r="42" spans="4:7">
-      <c r="D42" s="14"/>
-      <c r="E42" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
-    </row>
-    <row r="43" spans="4:7">
-      <c r="D43" s="14"/>
-      <c r="E43" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="F41:G43"/>
+    <mergeCell ref="D35:D43"/>
+    <mergeCell ref="D29:L29"/>
+    <mergeCell ref="D24:L24"/>
+    <mergeCell ref="D20:I20"/>
+    <mergeCell ref="D31:L31"/>
+    <mergeCell ref="D32:L32"/>
+    <mergeCell ref="F38:G40"/>
+    <mergeCell ref="F35:G37"/>
+    <mergeCell ref="D27:L27"/>
+    <mergeCell ref="D25:L25"/>
+    <mergeCell ref="D26:L26"/>
+    <mergeCell ref="D28:L28"/>
+    <mergeCell ref="D30:L30"/>
     <mergeCell ref="D2:K2"/>
     <mergeCell ref="D17:I17"/>
     <mergeCell ref="D18:I18"/>
@@ -1529,25 +1548,6 @@
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="H3:K3"/>
-    <mergeCell ref="F41:G43"/>
-    <mergeCell ref="D35:D43"/>
-    <mergeCell ref="D29:L29"/>
-    <mergeCell ref="D24:L24"/>
-    <mergeCell ref="D20:I20"/>
-    <mergeCell ref="D31:L31"/>
-    <mergeCell ref="D32:L32"/>
-    <mergeCell ref="F38:G40"/>
-    <mergeCell ref="F35:G37"/>
-    <mergeCell ref="D27:L27"/>
-    <mergeCell ref="D25:L25"/>
-    <mergeCell ref="D26:L26"/>
-    <mergeCell ref="D28:L28"/>
-    <mergeCell ref="D30:L30"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="E10:G10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2204,6 +2204,29 @@
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="D20:L20"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="D19:L19"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="E8:G8"/>
     <mergeCell ref="D23:L23"/>
     <mergeCell ref="D24:K24"/>
     <mergeCell ref="D25:K25"/>
@@ -2220,29 +2243,6 @@
     <mergeCell ref="D21:L21"/>
     <mergeCell ref="H6:K6"/>
     <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:K16"/>
-    <mergeCell ref="D20:L20"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:K17"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="D19:L19"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
